--- a/biology/Zoologie/Andrena_abbreviata/Andrena_abbreviata.xlsx
+++ b/biology/Zoologie/Andrena_abbreviata/Andrena_abbreviata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrena abbreviata est une espèce d'abeilles de la famille des Andrenidae, du genre Andrena. Elle a été signalée en Italie et dans l’Est de l’Europe de la Grèce à l’Ukraine, dans l’Ouest de la Russie et à Chypre.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description originale[2], l'auteur indique que l'holotype, une femelle, mesure 9-10 mm et possède des ailes de 6-7 mm.
-La femelle a une coloration générale noire[2]. Sa tête est arrondie et présente des poils roux ainsi que ses antennes à partir du troisième article[2]. Ses pattes sont noires[2].
-L'auteur ne décrit pas le mâle, inconnu de lui[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description originale, l'auteur indique que l'holotype, une femelle, mesure 9-10 mm et possède des ailes de 6-7 mm.
+La femelle a une coloration générale noire. Sa tête est arrondie et présente des poils roux ainsi que ses antennes à partir du troisième article. Ses pattes sont noires.
+L'auteur ne décrit pas le mâle, inconnu de lui.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Antoine Dours, « Hyménoptères du bassin méditerranéen - Andrena (suite) », Revue et magasin de zoologie pure et appliquée, Paris, Inconnu, vol. 3, no 1,‎ 1873, p. 275-325 (ISSN 1259-6523 et 2540-5020, BNF 32859507, lire en ligne)</t>
         </is>
